--- a/Data/aearep-1449/candidatepackages.xlsx
+++ b/Data/aearep-1449/candidatepackages.xlsx
@@ -14,62 +14,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>(Potential) missing package found</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
-    <t>unique</t>
+    <t>network</t>
   </si>
   <si>
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
-  </si>
-  <si>
     <t>concord</t>
   </si>
   <si>
     <t>index</t>
   </si>
   <si>
-    <t>lars</t>
-  </si>
-  <si>
     <t>forest</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
     <t>head</t>
   </si>
   <si>
     <t>mail</t>
   </si>
   <si>
+    <t>grand</t>
+  </si>
+  <si>
     <t>stack</t>
   </si>
   <si>
     <t>switch</t>
   </si>
   <si>
-    <t>grand</t>
-  </si>
-  <si>
     <t>preparation</t>
   </si>
   <si>
@@ -85,9 +67,6 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1449</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1449/122882/Data and Code-Papageorgiou 2021</t>
   </si>
   <si>
@@ -98,9 +77,6 @@
   </si>
   <si>
     <t>filename</t>
-  </si>
-  <si>
-    <t>PII_stata_scan.do</t>
   </si>
   <si>
     <t>cleandatacalibration.do</t>
@@ -165,7 +141,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D13"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -173,13 +149,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">
@@ -187,7 +163,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>284</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -199,7 +175,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>293</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -211,10 +187,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>267</v>
+        <v>926</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.30611571669578552</v>
       </c>
       <c r="D4"/>
     </row>
@@ -223,10 +199,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>279</v>
+        <v>998</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D5"/>
     </row>
@@ -235,10 +211,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>915</v>
+        <v>1226</v>
       </c>
       <c r="C6">
-        <v>0.30338194966316223</v>
+        <v>0.40528926253318787</v>
       </c>
       <c r="D6"/>
     </row>
@@ -247,10 +223,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>985</v>
+        <v>1678</v>
       </c>
       <c r="C7">
-        <v>0.32659152150154114</v>
+        <v>0.5547107458114624</v>
       </c>
       <c r="D7"/>
     </row>
@@ -259,10 +235,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1124</v>
+        <v>1971</v>
       </c>
       <c r="C8">
-        <v>0.37267905473709106</v>
+        <v>0.65157026052474976</v>
       </c>
       <c r="D8"/>
     </row>
@@ -271,10 +247,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1375</v>
+        <v>2074</v>
       </c>
       <c r="C9">
-        <v>0.4559018611907959</v>
+        <v>0.68561983108520508</v>
       </c>
       <c r="D9"/>
     </row>
@@ -283,10 +259,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1621</v>
+        <v>2218</v>
       </c>
       <c r="C10">
-        <v>0.53746682405471802</v>
+        <v>0.73322314023971558</v>
       </c>
       <c r="D10"/>
     </row>
@@ -295,10 +271,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1798</v>
+        <v>2226</v>
       </c>
       <c r="C11">
-        <v>0.5961538553237915</v>
+        <v>0.73586779832839966</v>
       </c>
       <c r="D11"/>
     </row>
@@ -307,10 +283,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1817</v>
+        <v>2806</v>
       </c>
       <c r="C12">
-        <v>0.60245358943939209</v>
+        <v>0.92760330438613892</v>
       </c>
       <c r="D12"/>
     </row>
@@ -319,84 +295,12 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1859</v>
+        <v>2936</v>
       </c>
       <c r="C13">
-        <v>0.61637932062149048</v>
+        <v>0.97057849168777466</v>
       </c>
       <c r="D13"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>2133</v>
-      </c>
-      <c r="C14">
-        <v>0.70722812414169312</v>
-      </c>
-      <c r="D14"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>2239</v>
-      </c>
-      <c r="C15">
-        <v>0.7423740029335022</v>
-      </c>
-      <c r="D15"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>2330</v>
-      </c>
-      <c r="C16">
-        <v>0.77254641056060791</v>
-      </c>
-      <c r="D16"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>2367</v>
-      </c>
-      <c r="C17">
-        <v>0.78481429815292358</v>
-      </c>
-      <c r="D17"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>2430</v>
-      </c>
-      <c r="C18">
-        <v>0.80570292472839355</v>
-      </c>
-      <c r="D18"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>2928</v>
-      </c>
-      <c r="C19">
-        <v>0.97082227468490601</v>
-      </c>
-      <c r="D19"/>
     </row>
   </sheetData>
 </worksheet>
@@ -404,79 +308,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
         <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
